--- a/biology/Zoologie/Chaoborus/Chaoborus.xlsx
+++ b/biology/Zoologie/Chaoborus/Chaoborus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaoborus est un genre d'insectes diptères nématocères de la famille des Chaoboridae.
 Ce genre cosmopolite comprend des espèces très communes.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes ont une vie brève. Ils se nourrissent de nectar, ou pas du tout. Les larves aquatiques sont carnassières : elles se nourrissent de très petites proies (daphnies et petites larves de moustiques par exemple), qu'elles capturent grâce à leurs antennes modifiées : ces antennes saisissent la proie et la conduisent jusqu'à la bouche.
 </t>
@@ -569,7 +585,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves vivent en groupe dans des lacs ou étangs. Elles nagent ordinairement entre deux eaux, grâce à des vésicules hydrostatiques et des palettes natatoires abdominales. Transparentes, elles sont parfois appelées vers de cristal.
 </t>
@@ -600,7 +618,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Des larves sont utilisées par les aquariophiles ; des adultes sont mangés par des entomophages : Chaoborus edulis (edulis : comestible) est consommé par les populations traditionnelles du Malawi.
 </t>
@@ -631,7 +651,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Selon ITIS (liste probablement incomplète) :
 Chaoborus albatus Johnson, 1921
@@ -674,9 +696,11 @@
           <t>Espèces européennes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fauna Europaea                                      (29 janvier 2022)[1] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fauna Europaea                                      (29 janvier 2022) :
 Sous-genre Chaoborus (Chaoborus)
 Chaoborus crystallinus
 Chaoborus flavicans
